--- a/Demopac.xlsx
+++ b/Demopac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -200,6 +200,78 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Case is deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Contact Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Salutation, First Name, Last Name .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Salutation, First Name, Last Name field and it should not be empty. Otherwise "Error: You must enter a value" message will be displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Salutation, First Name, Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Contact with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Contact is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Contact tab,  and select a Contact </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Contact Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Contact name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Contact Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab,  and click on existing Contact to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Contact Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Contact is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab,  and select the existing  Contact to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Contact is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -283,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K20" totalsRowShown="0">
-  <x:autoFilter ref="A1:K20"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0">
+  <x:autoFilter ref="A1:K33"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -590,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K20"/>
+  <x:dimension ref="A1:K33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -598,12 +670,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.130625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="116.70062499999999" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="126.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="143.980625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="93.130625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -1056,6 +1128,293 @@
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
       <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+      <x:c r="K23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+      <x:c r="K24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+      <x:c r="K25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+      <x:c r="K26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+      <x:c r="K27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+      <x:c r="K28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:11">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+      <x:c r="K29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:11">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s"/>
+      <x:c r="F30" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+      <x:c r="K30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="A31" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s"/>
+      <x:c r="F31" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+      <x:c r="K31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:11">
+      <x:c r="A32" s="0" t="s"/>
+      <x:c r="B32" s="0" t="s"/>
+      <x:c r="C32" s="0" t="s"/>
+      <x:c r="D32" s="0" t="s"/>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+      <x:c r="K32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:11">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+      <x:c r="K33" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
